--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H2">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>15.87050818239822</v>
+        <v>14.74772611014756</v>
       </c>
       <c r="R2">
-        <v>142.834573641584</v>
+        <v>132.729534991328</v>
       </c>
       <c r="S2">
-        <v>0.05235812062285441</v>
+        <v>0.04710213755324102</v>
       </c>
       <c r="T2">
-        <v>0.0523581206228544</v>
+        <v>0.04710213755324103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H3">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>23.46722034545533</v>
+        <v>17.06167868157866</v>
       </c>
       <c r="R3">
-        <v>211.204983109098</v>
+        <v>153.555108134208</v>
       </c>
       <c r="S3">
-        <v>0.07742030308098065</v>
+        <v>0.05449257262758303</v>
       </c>
       <c r="T3">
-        <v>0.07742030308098062</v>
+        <v>0.05449257262758304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H4">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>13.11393433278744</v>
+        <v>9.53439438261689</v>
       </c>
       <c r="R4">
-        <v>118.025408995087</v>
+        <v>85.809549443552</v>
       </c>
       <c r="S4">
-        <v>0.04326395523980758</v>
+        <v>0.03045149824065834</v>
       </c>
       <c r="T4">
-        <v>0.04326395523980757</v>
+        <v>0.03045149824065834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.213034</v>
       </c>
       <c r="I5">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J5">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>59.77779262466489</v>
+        <v>76.40363068101311</v>
       </c>
       <c r="R5">
-        <v>538.0001336219841</v>
+        <v>687.6326761291181</v>
       </c>
       <c r="S5">
-        <v>0.1972118876622653</v>
+        <v>0.2440223187646451</v>
       </c>
       <c r="T5">
-        <v>0.1972118876622653</v>
+        <v>0.2440223187646451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.213034</v>
       </c>
       <c r="I6">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J6">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
-        <v>88.39153826490534</v>
+        <v>88.39153826490532</v>
       </c>
       <c r="R6">
-        <v>795.5238443841481</v>
+        <v>795.5238443841479</v>
       </c>
       <c r="S6">
-        <v>0.2916110038395895</v>
+        <v>0.2823099888620376</v>
       </c>
       <c r="T6">
-        <v>0.2916110038395895</v>
+        <v>0.2823099888620377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.213034</v>
       </c>
       <c r="I7">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J7">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
-        <v>49.39489259129577</v>
+        <v>49.39489259129579</v>
       </c>
       <c r="R7">
-        <v>444.554033321662</v>
+        <v>444.5540333216621</v>
       </c>
       <c r="S7">
-        <v>0.1629578407146627</v>
+        <v>0.1577602545562532</v>
       </c>
       <c r="T7">
-        <v>0.1629578407146627</v>
+        <v>0.1577602545562532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H8">
         <v>1.669856</v>
       </c>
       <c r="I8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N8">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O8">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P8">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q8">
-        <v>16.06627384962844</v>
+        <v>20.53474375232356</v>
       </c>
       <c r="R8">
-        <v>144.596464646656</v>
+        <v>184.812693770912</v>
       </c>
       <c r="S8">
-        <v>0.05300396776907381</v>
+        <v>0.06558504800119477</v>
       </c>
       <c r="T8">
-        <v>0.0530039677690738</v>
+        <v>0.06558504800119477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H9">
         <v>1.669856</v>
       </c>
       <c r="I9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N9">
         <v>128.041122</v>
       </c>
       <c r="O9">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P9">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q9">
-        <v>23.75669286871466</v>
+        <v>23.75669286871467</v>
       </c>
       <c r="R9">
-        <v>213.810235818432</v>
+        <v>213.8102358184319</v>
       </c>
       <c r="S9">
-        <v>0.07837529690446915</v>
+        <v>0.07587549476812887</v>
       </c>
       <c r="T9">
-        <v>0.07837529690446914</v>
+        <v>0.07587549476812887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H10">
         <v>1.669856</v>
       </c>
       <c r="I10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N10">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O10">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P10">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q10">
         <v>13.27569714940089</v>
@@ -1066,10 +1066,10 @@
         <v>119.481274344608</v>
       </c>
       <c r="S10">
-        <v>0.04379762416629683</v>
+        <v>0.04240068662625808</v>
       </c>
       <c r="T10">
-        <v>0.04379762416629682</v>
+        <v>0.04240068662625808</v>
       </c>
     </row>
   </sheetData>
